--- a/Mqtt_Scpi_Scripts/pmbus_excel.xlsx
+++ b/Mqtt_Scpi_Scripts/pmbus_excel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF90668-5F59-4CCB-8F58-52265A9BA8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-125" yWindow="-125" windowWidth="29035" windowHeight="15715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Info" sheetId="3" r:id="rId3"/>
     <sheet name="Command_Mqtt" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="224">
   <si>
     <t>VOUT</t>
   </si>
@@ -331,42 +330,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>0x58</t>
-  </si>
-  <si>
     <t>SentByte Done.</t>
   </si>
   <si>
-    <t>Disable</t>
-  </si>
-  <si>
     <t>TEMP1:0x8D</t>
   </si>
   <si>
     <t>FAN SPEED</t>
   </si>
   <si>
-    <t xml:space="preserve">Scan addr at:0x50 58 </t>
-  </si>
-  <si>
-    <t>eeprom</t>
-  </si>
-  <si>
-    <t>MFR _Version</t>
-  </si>
-  <si>
-    <t>CR_Main</t>
-  </si>
-  <si>
-    <t>CR_Part</t>
-  </si>
-  <si>
-    <t>Set_Poll_Time</t>
-  </si>
-  <si>
-    <t>Set_Addr</t>
-  </si>
-  <si>
     <t>电压Voltage</t>
   </si>
   <si>
@@ -380,9 +352,6 @@
   </si>
   <si>
     <t>INPUT: Curr</t>
-  </si>
-  <si>
-    <t>Refresh:1940</t>
   </si>
   <si>
     <t>PMBUS READ INFO:</t>
@@ -638,17 +607,110 @@
   </si>
   <si>
     <t>Reset</t>
+  </si>
+  <si>
+    <t>Set_Poll_</t>
+  </si>
+  <si>
+    <t>I2c_Scan_</t>
+  </si>
+  <si>
+    <t>EEprom_</t>
+  </si>
+  <si>
+    <t>Set_Addr_</t>
+  </si>
+  <si>
+    <t>0x58</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>0x5A</t>
+  </si>
+  <si>
+    <t>Shut_Down_</t>
+  </si>
+  <si>
+    <t>Send_Comm_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan addr at:0x50 58 </t>
+  </si>
+  <si>
+    <t>[01 58 8A 00]</t>
+  </si>
+  <si>
+    <t>8A: [FF FF]</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Refresh:376</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -656,14 +718,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,21 +733,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -693,7 +755,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -701,7 +763,7 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -709,14 +771,14 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -725,7 +787,7 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -734,7 +796,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,7 +805,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -751,7 +813,7 @@
       <b/>
       <sz val="16"/>
       <color theme="8" tint="-0.499984740745262"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -759,14 +821,14 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -774,7 +836,7 @@
       <b/>
       <sz val="100"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -782,7 +844,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -790,7 +852,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -798,7 +860,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -807,7 +869,7 @@
       <b/>
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -816,7 +878,7 @@
       <b/>
       <sz val="12"/>
       <color theme="3" tint="-0.499984740745262"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -824,7 +886,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,7 +895,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -841,12 +903,20 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,12 +932,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,12 +992,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,13 +1158,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1114,24 +1169,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1150,71 +1204,39 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,22 +1271,56 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="20" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,14 +2085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <cols>
     <col min="1" max="3" width="15.75" customWidth="1"/>
     <col min="4" max="4" width="2.125" customWidth="1"/>
@@ -2054,70 +2110,70 @@
     <col min="16" max="16" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:16" ht="26.5" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="11" t="str">
+      <c r="K1" s="9" t="str">
         <f>I2</f>
-        <v>00</v>
-      </c>
-      <c r="L1" s="29" t="s">
+        <v>02</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="11" t="str">
+      <c r="M1" s="5"/>
+      <c r="N1" s="9" t="str">
         <f>H2</f>
         <v>00</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="P1" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
-        <v>12.2598</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="14">
+        <v>12.2578</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>2</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <v>79</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>33</v>
@@ -2125,354 +2181,360 @@
       <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
-        <v>7.109</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="14">
+        <v>14.859</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5">
+      <c r="M3" s="5"/>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="P3" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
-        <v>221.5</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="14">
+        <v>229</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5">
+      <c r="M4" s="5"/>
+      <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="14">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>2</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5">
+      <c r="M5" s="5"/>
+      <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
-        <v>102.25</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="14">
+        <v>216.75</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>3</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5">
+      <c r="M6" s="5"/>
+      <c r="N6" s="4">
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:16" ht="21.65" customHeight="1" thickBot="1">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
-        <v>87</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="14">
+        <v>182</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <v>81</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>4</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5">
+      <c r="M7" s="5"/>
+      <c r="N7" s="4">
         <v>4</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:16" ht="21.65" customHeight="1" thickBot="1">
+      <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="23">
-        <v>25.1</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="21">
+        <v>25.4</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H8" s="26"/>
+      <c r="I8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="4">
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5">
+      <c r="M8" s="5"/>
+      <c r="N8" s="4">
         <v>5</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:16" ht="21.65" customHeight="1" thickBot="1">
+      <c r="A9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="23">
-        <v>40.6</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="21">
+        <v>43.3</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>6</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4">
         <v>6</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:16" ht="21.65" customHeight="1" thickBot="1">
+      <c r="A10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="23">
-        <v>35.4</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="21">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="K10" s="5">
+      <c r="E10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="4">
         <v>7</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5">
+      <c r="M10" s="5"/>
+      <c r="N10" s="4">
         <v>7</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:16" ht="21.65" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23">
-        <v>4184</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21">
+        <v>4120</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="11" t="str">
+      <c r="E11" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="18">
+      <c r="A12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="9" t="str">
         <f>I3</f>
         <v>00</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="11" t="str">
+      <c r="M12" s="5"/>
+      <c r="N12" s="9" t="str">
         <f>I4</f>
         <v>00</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="O12" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
-        <v>12</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="K13" s="7" t="s">
+    <row r="13" spans="1:16" ht="20.8">
+      <c r="A13" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="K13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="3" t="s">
         <v>33</v>
       </c>
@@ -2480,556 +2542,556 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24">
+    <row r="14" spans="1:16" ht="18">
+      <c r="A14" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="22">
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5">
+      <c r="M14" s="5"/>
+      <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>2</v>
-      </c>
-      <c r="K15" s="24">
+    <row r="15" spans="1:16" ht="18">
+      <c r="A15" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="22">
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="5">
+      <c r="M15" s="5"/>
+      <c r="N15" s="4">
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>3</v>
-      </c>
-      <c r="K16" s="24">
+    <row r="16" spans="1:16" ht="18">
+      <c r="A16" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="22">
         <v>2</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5">
+      <c r="M16" s="5"/>
+      <c r="N16" s="4">
         <v>2</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>4</v>
-      </c>
-      <c r="K17" s="24">
+    <row r="17" spans="1:15" ht="18">
+      <c r="A17" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="22">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="5">
+      <c r="M17" s="5"/>
+      <c r="N17" s="4">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>5</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="K18" s="24">
+    <row r="18" spans="1:15" ht="18">
+      <c r="A18" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="K18" s="22">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5">
+      <c r="M18" s="5"/>
+      <c r="N18" s="4">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>6</v>
-      </c>
-      <c r="K19" s="24">
+    <row r="19" spans="1:15" ht="18" customHeight="1">
+      <c r="A19" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="22">
         <v>5</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="5">
+      <c r="M19" s="5"/>
+      <c r="N19" s="4">
         <v>5</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>7</v>
-      </c>
-      <c r="K20" s="24">
+    <row r="20" spans="1:15" ht="18" customHeight="1">
+      <c r="A20" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="22">
         <v>6</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5">
+      <c r="M20" s="5"/>
+      <c r="N20" s="4">
         <v>6</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>8</v>
-      </c>
-      <c r="K21" s="24">
+    <row r="21" spans="1:15" ht="18" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="22">
         <v>7</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="5">
+      <c r="M21" s="5"/>
+      <c r="N21" s="4">
         <v>7</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>9</v>
-      </c>
-      <c r="K22" s="11" t="str">
+    <row r="22" spans="1:15" ht="18" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="9" t="str">
         <f>I5</f>
         <v>00</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="11" t="str">
+      <c r="M22" s="5"/>
+      <c r="N22" s="9" t="str">
         <f>I6</f>
         <v>00</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>10</v>
+    <row r="23" spans="1:15" ht="18">
+      <c r="A23" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>11</v>
-      </c>
-      <c r="K24" s="5">
+    <row r="24" spans="1:15" ht="18">
+      <c r="A24" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="5">
+      <c r="M24" s="5"/>
+      <c r="N24" s="4">
         <v>0</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>12</v>
-      </c>
-      <c r="K25" s="5">
+    <row r="25" spans="1:15" ht="18">
+      <c r="A25" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5">
+      <c r="M25" s="5"/>
+      <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>13</v>
-      </c>
-      <c r="K26" s="5">
+    <row r="26" spans="1:15" ht="18">
+      <c r="A26" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="4">
         <v>2</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5">
+      <c r="M26" s="5"/>
+      <c r="N26" s="4">
         <v>2</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>14</v>
-      </c>
-      <c r="K27" s="5">
+    <row r="27" spans="1:15" ht="18">
+      <c r="A27" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="4">
         <v>3</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="5">
+      <c r="M27" s="5"/>
+      <c r="N27" s="4">
         <v>3</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>15</v>
-      </c>
-      <c r="K28" s="5">
+    <row r="28" spans="1:15" ht="18">
+      <c r="A28" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="4">
         <v>4</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="5">
+      <c r="M28" s="5"/>
+      <c r="N28" s="4">
         <v>4</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>16</v>
-      </c>
-      <c r="K29" s="5">
+    <row r="29" spans="1:15" ht="18">
+      <c r="A29" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="4">
         <v>5</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="5">
+      <c r="M29" s="5"/>
+      <c r="N29" s="4">
         <v>5</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K30" s="5">
+    <row r="30" spans="1:15" ht="18">
+      <c r="K30" s="4">
         <v>6</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="5">
+      <c r="M30" s="5"/>
+      <c r="N30" s="4">
         <v>6</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K31" s="5">
+    <row r="31" spans="1:15" ht="18">
+      <c r="K31" s="4">
         <v>7</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="5">
+      <c r="M31" s="5"/>
+      <c r="N31" s="4">
         <v>7</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K32" s="10" t="str">
+    <row r="32" spans="1:15" ht="18">
+      <c r="K32" s="9" t="str">
         <f>I8</f>
-        <v>00</v>
-      </c>
-      <c r="L32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="4" t="str">
+      <c r="M32" s="5"/>
+      <c r="N32" s="9" t="str">
         <f>I7</f>
         <v>00</v>
       </c>
-      <c r="O32" s="29" t="s">
+      <c r="O32" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="11:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:15" ht="18">
       <c r="K33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K34" s="5">
+    <row r="34" spans="11:15" ht="18">
+      <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="5">
+      <c r="M34" s="5"/>
+      <c r="N34" s="4">
         <v>0</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K35" s="5">
+    <row r="35" spans="11:15" ht="18">
+      <c r="K35" s="4">
         <v>1</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="5">
+      <c r="M35" s="5"/>
+      <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="O35" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K36" s="5">
+    <row r="36" spans="11:15" ht="18">
+      <c r="K36" s="4">
         <v>2</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="5">
+      <c r="M36" s="5"/>
+      <c r="N36" s="4">
         <v>2</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K37" s="5">
+    <row r="37" spans="11:15" ht="18">
+      <c r="K37" s="4">
         <v>3</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="5">
+      <c r="M37" s="5"/>
+      <c r="N37" s="4">
         <v>3</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K38" s="5">
+    <row r="38" spans="11:15" ht="18">
+      <c r="K38" s="4">
         <v>4</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5">
+      <c r="M38" s="5"/>
+      <c r="N38" s="4">
         <v>4</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K39" s="5" t="s">
+    <row r="39" spans="11:15" ht="18">
+      <c r="K39" s="4" t="s">
         <v>84</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="5">
+      <c r="M39" s="5"/>
+      <c r="N39" s="4">
         <v>5</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K40" s="5" t="s">
+    <row r="40" spans="11:15" ht="18">
+      <c r="K40" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="5">
+      <c r="M40" s="5"/>
+      <c r="N40" s="4">
         <v>6</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="11:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="K41" s="5" t="s">
+    <row r="41" spans="11:15" ht="18">
+      <c r="K41" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="5">
+      <c r="M41" s="5"/>
+      <c r="N41" s="4">
         <v>7</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="34">
+    <row r="200" spans="1:1" ht="18">
+      <c r="A200" s="56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="18">
+      <c r="A201" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="18">
+      <c r="A202" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="18">
+      <c r="A203" s="56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="18">
+      <c r="A204" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="18">
+      <c r="A205" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="18">
+      <c r="A206" s="56">
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="34">
+    <row r="207" spans="1:1" ht="18">
+      <c r="A207" s="56">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="34">
+    <row r="208" spans="1:1" ht="18">
+      <c r="A208" s="56">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="34">
+    <row r="209" spans="1:1" ht="18">
+      <c r="A209" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="34">
+    <row r="210" spans="1:1" ht="18">
+      <c r="A210" s="56">
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="34">
+    <row r="211" spans="1:1" ht="18">
+      <c r="A211" s="56">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="34">
+    <row r="212" spans="1:1" ht="18">
+      <c r="A212" s="56">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="34">
+    <row r="213" spans="1:1" ht="18">
+      <c r="A213" s="56">
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="34">
+    <row r="214" spans="1:1" ht="18">
+      <c r="A214" s="56">
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="34">
+    <row r="215" spans="1:1" ht="18">
+      <c r="A215" s="56">
         <v>16</v>
       </c>
     </row>
@@ -3384,10 +3446,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
       <formula1>"Enable, Disable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>$A$200:$A$215</formula1>
     </dataValidation>
   </dataValidations>
@@ -3397,12 +3459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3410,320 +3472,320 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="N17" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="J1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+    <row r="1" spans="1:16">
+      <c r="A1" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A3" s="64">
         <f>Sheet1!B2</f>
-        <v>12.2598</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="47">
+        <v>12.2578</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="64">
         <f>Sheet1!B3</f>
-        <v>7.109</v>
-      </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+        <v>14.859</v>
+      </c>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.75" customHeight="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.8">
+      <c r="A16" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="65">
         <f>Sheet1!B4</f>
-        <v>221.5</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="D17" s="49">
+        <v>229</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="D17" s="66">
         <f>Sheet1!B5</f>
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="G17" s="50">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="G17" s="67">
         <f>Sheet1!B8</f>
-        <v>25.1</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="J17" s="50">
+        <v>25.4</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="J17" s="67">
         <f>Sheet1!B11</f>
-        <v>4184</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="M17" s="51" t="str">
+        <v>4120</v>
+      </c>
+      <c r="K17" s="67"/>
+      <c r="M17" s="68" t="str">
         <f>Sheet1!H2</f>
         <v>00</v>
       </c>
-      <c r="N17" s="51" t="str">
+      <c r="N17" s="68" t="str">
         <f>Sheet1!I2</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3745,14 +3807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D213C93-35E3-450A-87B9-AEE7F288C421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -3763,653 +3825,653 @@
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10" ht="15.95">
+      <c r="A1" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="38">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+      <c r="C2" s="38">
+        <v>2</v>
+      </c>
+      <c r="D2" s="38">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <v>4</v>
+      </c>
+      <c r="F2" s="38">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38">
+        <v>6</v>
+      </c>
+      <c r="H2" s="38">
+        <v>7</v>
+      </c>
+      <c r="I2" s="38">
+        <v>8</v>
+      </c>
+      <c r="J2" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.95">
+      <c r="A3" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52">
-        <v>2</v>
-      </c>
-      <c r="D2" s="52">
-        <v>3</v>
-      </c>
-      <c r="E2" s="52">
-        <v>4</v>
-      </c>
-      <c r="F2" s="52">
-        <v>5</v>
-      </c>
-      <c r="G2" s="52">
-        <v>6</v>
-      </c>
-      <c r="H2" s="52">
-        <v>7</v>
-      </c>
-      <c r="I2" s="52">
-        <v>8</v>
-      </c>
-      <c r="J2" s="52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+    <row r="4" spans="1:10" ht="15.95">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D4" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="E4" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="F4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="C5" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="F5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="G5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="H5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="I5" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54" t="s">
+      <c r="C6" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="F6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="C7" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="F7" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54" t="s">
+      <c r="C8" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="F8" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="C9" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H9" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.95">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54" t="s">
+      <c r="C10" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.95">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="57"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54" t="s">
+      <c r="C11" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95">
+      <c r="A13" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="55" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="15.95">
+      <c r="A14" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54" t="s">
+      <c r="D14" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54" t="s">
+      <c r="G14" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="55" t="s">
+      <c r="H14" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.95">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="57"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54" t="s">
+      <c r="C15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="55" t="s">
+      <c r="E15" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="F15" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="G15" s="49" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="68" t="s">
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="70" t="s">
+      <c r="D16" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E16" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F16" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="H16" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="15.95">
+      <c r="A18" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G18" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.95">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54" t="s">
+      <c r="C19" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="63" t="s">
+      <c r="D19" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E19" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="63" t="s">
+      <c r="F19" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="D20" s="40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="70" t="s">
+      <c r="E20" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="F20" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="G20" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="70" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="15.95">
+      <c r="A21" s="43"/>
+      <c r="B21" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54" t="s">
+      <c r="D21" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="E21" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="54" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="15.95">
+      <c r="A22" s="43"/>
+      <c r="B22" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="D22" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="55" t="s">
+      <c r="E22" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95">
+      <c r="A23" s="43"/>
+      <c r="B23" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D23" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E23" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95">
+      <c r="A24" s="43"/>
+      <c r="B24" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="D24" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="E24" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95">
+      <c r="A25" s="43"/>
+      <c r="B25" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="55" t="s">
+      <c r="D25" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="E25" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="I25" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95">
+      <c r="A26" s="43"/>
+      <c r="B26" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="54" t="s">
+      <c r="C26" s="41" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="D26" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="E26" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95">
+      <c r="A27" s="43"/>
+      <c r="B27" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="55" t="s">
+      <c r="D27" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="E27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95">
+      <c r="A28" s="43"/>
+      <c r="B28" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="55" t="s">
+      <c r="D28" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="E28" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95">
+      <c r="A29" s="43"/>
+      <c r="B29" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="55" t="s">
+      <c r="E29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95">
+      <c r="A30" s="43"/>
+      <c r="B30" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D30" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="I25" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="57"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="57"/>
+      <c r="E30" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
